--- a/biology/Botanique/Bryonia/Bryonia.xlsx
+++ b/biology/Botanique/Bryonia/Bryonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bryonia (les bryones) est un genre de plantes à fleurs de la famille des Cucurbitaceae.
 Ce sont des plantes herbacées.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (11 décembre 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (11 décembre 2020) :
 Bryonia acuta Desf.
 Bryonia alba L.
 Bryonia aspera Stev.
@@ -527,11 +541,11 @@
 Bryonia syriaca Boiss.
 Bryonia verrucosa Dryand. ex Aiton
 Bryonia × melanocarpa Nabiev
-Selon ITIS      (28 août 2013)[2] :
+Selon ITIS      (28 août 2013) :
 Bryonia alba L.
 Bryonia cretica L.
 Bryonia dioica Jacq.
-Selon NCBI  (28 août 2013)[3] :
+Selon NCBI  (28 août 2013) :
 Bryonia acuta
 Bryonia alba
 Bryonia aspera
@@ -544,7 +558,7 @@
 Bryonia multiflora
 Bryonia syriaca
 Bryonia verrucosa
-Selon Tropicos                                           (28 août 2013)[4] :
+Selon Tropicos                                           (28 août 2013) :
 Bryonia abyssinica Lam.
 Bryonia acuta Desf.
 Bryonia affinis Endl.
